--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29921.86099005543</v>
+        <v>43648.21912747356</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10632038.70694346</v>
+        <v>10346443.45583962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24907671.33116919</v>
+        <v>24622076.08006534</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2845351.748950502</v>
+        <v>2989385.267199143</v>
       </c>
     </row>
     <row r="11">
@@ -9246,10 +9248,10 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>38.66169381481656</v>
@@ -9258,7 +9260,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9322,19 +9324,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9407,22 +9409,22 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P20" t="n">
         <v>135.4597561231036</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>93.17061249236157</v>
       </c>
       <c r="K21" t="n">
         <v>80.29914934735042</v>
@@ -9489,13 +9491,13 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O21" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q21" t="n">
         <v>94.49434172313325</v>
@@ -9559,16 +9561,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M22" t="n">
         <v>92.09541281912071</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O22" t="n">
         <v>96.22962838366004</v>
@@ -9726,16 +9728,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P26" t="n">
         <v>135.4597561231036</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
         <v>93.17061249236157</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,7 +10035,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L28" t="n">
         <v>90.4687457914608</v>
@@ -10048,7 +10050,7 @@
         <v>96.22962838366004</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10124,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q29" t="n">
         <v>150.3839754851235</v>
@@ -10197,10 +10199,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O30" t="n">
         <v>57.81213424001893</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10364,10 +10366,10 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10428,10 +10430,10 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q33" t="n">
         <v>94.49434172313325</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,19 +10509,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P34" t="n">
         <v>101.5955875616828</v>
@@ -10586,7 +10588,7 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10601,10 +10603,10 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,7 +10670,7 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>94.49434172313325</v>
@@ -11318,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11455,7 +11457,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -23838,10 +23840,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -23850,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23914,19 +23916,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -23999,22 +24001,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S20" t="n">
         <v>193.8433399116564</v>
@@ -24069,7 +24071,7 @@
         <v>77.12765456497084</v>
       </c>
       <c r="J21" t="n">
-        <v>93.17061249236157</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24081,13 +24083,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -24151,16 +24153,16 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K22" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -24318,16 +24320,16 @@
         <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
         <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>78.03303713061706</v>
@@ -24464,22 +24466,22 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J26" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -24540,13 +24542,13 @@
         <v>108.7938786076111</v>
       </c>
       <c r="I27" t="n">
-        <v>87.25340171355576</v>
+        <v>77.12765456497084</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>61.18167021676314</v>
@@ -24558,13 +24560,13 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>78.03303713061706</v>
@@ -24625,7 +24627,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K28" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -24640,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>61.14583096471014</v>
@@ -24716,10 +24718,10 @@
         <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -24789,10 +24791,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -24938,16 +24940,16 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>110.5750244233121</v>
@@ -24956,10 +24958,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>108.0327934026353</v>
@@ -25020,10 +25022,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>51.84373129681028</v>
@@ -25032,16 +25034,16 @@
         <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>123.5547069419379</v>
+        <v>78.03303713061706</v>
       </c>
       <c r="S33" t="n">
         <v>165.0641745378389</v>
@@ -25099,19 +25101,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K34" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -25178,7 +25180,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
         <v>130.6648563030561</v>
@@ -25193,10 +25195,10 @@
         <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>108.0327934026353</v>
@@ -25260,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
         <v>51.84373129681028</v>
@@ -25509,7 +25511,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S44" t="n">
         <v>193.8433399116564</v>
@@ -26047,7 +26049,7 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K46" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>90.4687457914608</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>357102.4766001984</v>
+        <v>328154.0515658425</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>268904.9943389174</v>
+        <v>341699.3756980308</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>148030.4320540167</v>
+        <v>157065.0487020995</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>244577.3260133127</v>
+        <v>303453.8470174211</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>300317.6397124968</v>
+        <v>309481.609335087</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>166373.9449821309</v>
+        <v>300361.1817230916</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>280274.8319481792</v>
+        <v>217059.9772503463</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>163023.2455836729</v>
+        <v>158131.4114103872</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>153585.8754379679</v>
+        <v>166700.9397412791</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>60501.65521771398</v>
       </c>
       <c r="G2" t="n">
-        <v>97172.46592738405</v>
+        <v>90142.13413332625</v>
       </c>
       <c r="H2" t="n">
-        <v>75753.07737821584</v>
+        <v>93431.7128511434</v>
       </c>
       <c r="I2" t="n">
-        <v>46397.82653759712</v>
+        <v>48591.94772356008</v>
       </c>
       <c r="J2" t="n">
-        <v>69844.92935628332</v>
+        <v>84143.51302870964</v>
       </c>
       <c r="K2" t="n">
-        <v>83381.86268322797</v>
+        <v>85607.3981629999</v>
       </c>
       <c r="L2" t="n">
-        <v>50852.67967728199</v>
+        <v>83392.4371715153</v>
       </c>
       <c r="M2" t="n">
-        <v>78514.32365475087</v>
+        <v>63162.14465670575</v>
       </c>
       <c r="N2" t="n">
-        <v>50038.93839479933</v>
+        <v>48850.92152414424</v>
       </c>
       <c r="O2" t="n">
         <v>59697.33678282401</v>
       </c>
       <c r="P2" t="n">
-        <v>47747.00564512813</v>
+        <v>50932.09269021799</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>82398.33756217753</v>
       </c>
       <c r="D4" t="n">
-        <v>8982.957139551896</v>
+        <v>8982.957139551894</v>
       </c>
       <c r="E4" t="n">
         <v>54153.02400305979</v>
@@ -26430,34 +26432,34 @@
         <v>17482.21329338972</v>
       </c>
       <c r="G4" t="n">
-        <v>54153.02400305979</v>
+        <v>47122.69220900199</v>
       </c>
       <c r="H4" t="n">
-        <v>32733.63545389158</v>
+        <v>50412.27092681914</v>
       </c>
       <c r="I4" t="n">
-        <v>3378.384613272851</v>
+        <v>5572.505799235807</v>
       </c>
       <c r="J4" t="n">
-        <v>26825.48743195907</v>
+        <v>41124.07110438539</v>
       </c>
       <c r="K4" t="n">
-        <v>40362.42075890374</v>
+        <v>42587.95623867566</v>
       </c>
       <c r="L4" t="n">
-        <v>7833.237752957721</v>
+        <v>40372.99524719104</v>
       </c>
       <c r="M4" t="n">
-        <v>35494.88173042661</v>
+        <v>20142.70273238149</v>
       </c>
       <c r="N4" t="n">
-        <v>7019.496470475062</v>
+        <v>5831.479599819972</v>
       </c>
       <c r="O4" t="n">
         <v>16677.89485849974</v>
       </c>
       <c r="P4" t="n">
-        <v>4727.563720803865</v>
+        <v>7912.650765893709</v>
       </c>
     </row>
     <row r="5">
@@ -26528,7 +26530,7 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-93692.17018068406</v>
+        <v>-93692.17018068412</v>
       </c>
       <c r="F6" t="n">
         <v>39407.82981931594</v>
@@ -26537,19 +26539,19 @@
         <v>39407.82981931594</v>
       </c>
       <c r="H6" t="n">
-        <v>39407.82981931593</v>
+        <v>39407.82981931594</v>
       </c>
       <c r="I6" t="n">
         <v>39407.82981931595</v>
       </c>
       <c r="J6" t="n">
+        <v>39407.82981931593</v>
+      </c>
+      <c r="K6" t="n">
         <v>39407.82981931592</v>
       </c>
-      <c r="K6" t="n">
-        <v>39407.82981931591</v>
-      </c>
       <c r="L6" t="n">
-        <v>39407.82981931595</v>
+        <v>39407.82981931594</v>
       </c>
       <c r="M6" t="n">
         <v>39407.82981931594</v>
@@ -26561,7 +26563,7 @@
         <v>39407.82981931594</v>
       </c>
       <c r="P6" t="n">
-        <v>39407.82981931594</v>
+        <v>39407.82981931595</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_17_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43648.21912747356</v>
+        <v>-81461.67967000316</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10346443.45583962</v>
+        <v>8041589.773721423</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24622076.08006534</v>
+        <v>22317222.39794713</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2989385.267199143</v>
+        <v>4184556.206383017</v>
       </c>
     </row>
     <row r="11">
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N18" t="n">
         <v>38.66169381481656</v>
@@ -9260,7 +9260,7 @@
         <v>57.81213424001893</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q18" t="n">
         <v>94.49434172313325</v>
@@ -9324,19 +9324,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N19" t="n">
         <v>81.96869489115805</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P19" t="n">
         <v>101.5955875616828</v>
@@ -9412,7 +9412,7 @@
         <v>113.4004983079896</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O20" t="n">
         <v>117.8828208804077</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,19 +9719,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P24" t="n">
         <v>65.92768427608706</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M26" t="n">
         <v>113.4004983079896</v>
@@ -9959,19 +9959,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M27" t="n">
         <v>51.84373129681028</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q27" t="n">
         <v>94.49434172313325</v>
@@ -10120,13 +10120,13 @@
         <v>130.6648563030561</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P29" t="n">
         <v>135.4597561231036</v>
@@ -10354,16 +10354,16 @@
         <v>135.370731907559</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M32" t="n">
         <v>113.4004983079896</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P32" t="n">
         <v>135.4597561231036</v>
@@ -10436,10 +10436,10 @@
         <v>61.18167021676314</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O33" t="n">
         <v>57.81213424001893</v>
@@ -10588,25 +10588,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10670,16 +10670,16 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P36" t="n">
         <v>65.92768427608706</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,19 +10907,19 @@
         <v>80.29914934735042</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q39" t="n">
         <v>94.49434172313325</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>94.30397654773019</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,25 +11062,25 @@
         <v>124.5190384721106</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,19 +11141,19 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P42" t="n">
         <v>65.92768427608706</v>
@@ -11232,10 +11232,10 @@
         <v>81.96869489115805</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.5955875616828</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>124.5190384721106</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>135.370731907559</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.6648563030561</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>113.4004983079896</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>110.5750244233121</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>117.8828208804077</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>135.4597561231036</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>150.3839754851235</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,25 +11378,25 @@
         <v>93.17061249236157</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.29914934735042</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>61.18167021676314</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.84373129681028</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>38.66169381481656</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>57.81213424001893</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>65.92768427608706</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>94.49434172313325</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11460,16 +11460,16 @@
         <v>94.30397654773019</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>90.4687457914608</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>92.09541281912071</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>81.96869489115805</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>96.22962838366004</v>
       </c>
       <c r="P46" t="n">
         <v>101.5955875616828</v>
@@ -22965,28 +22965,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,31 +23044,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23518,31 +23518,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J14" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S14" t="n">
         <v>193.8433399116564</v>
@@ -23840,10 +23840,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -23852,7 +23852,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -23916,19 +23916,19 @@
         <v>72.23757736389061</v>
       </c>
       <c r="K19" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -24004,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -24229,31 +24229,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J23" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S23" t="n">
         <v>193.8433399116564</v>
@@ -24311,19 +24311,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -24387,28 +24387,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J25" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K25" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R25" t="n">
         <v>163.8605191622716</v>
@@ -24469,10 +24469,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24551,19 +24551,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24712,13 +24712,13 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -24946,16 +24946,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -25028,10 +25028,10 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -25180,25 +25180,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>108.0327934026353</v>
@@ -25262,16 +25262,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -25414,31 +25414,31 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J38" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>173.7492132756177</v>
+        <v>108.0327934026353</v>
       </c>
       <c r="S38" t="n">
         <v>193.8433399116564</v>
@@ -25499,19 +25499,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -25572,28 +25572,28 @@
         <v>146.4662571175369</v>
       </c>
       <c r="J40" t="n">
-        <v>105.873818686614</v>
+        <v>72.23757736389061</v>
       </c>
       <c r="K40" t="n">
-        <v>94.30397654773019</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>126.4887893424616</v>
+        <v>61.14583096471014</v>
       </c>
       <c r="R40" t="n">
         <v>163.8605191622716</v>
@@ -25654,25 +25654,25 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>108.0327934026353</v>
@@ -25733,19 +25733,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -25824,10 +25824,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>101.5955875616828</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>61.14583096471014</v>
@@ -25888,28 +25888,28 @@
         <v>184.7994937051469</v>
       </c>
       <c r="J44" t="n">
-        <v>124.5190384721106</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>135.370731907559</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>130.6648563030561</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>113.4004983079896</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>110.5750244233121</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>117.8828208804077</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>135.4597561231036</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>150.3839754851235</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>108.0327934026353</v>
@@ -25970,25 +25970,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29914934735042</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>61.18167021676314</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>51.84373129681028</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>38.66169381481656</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>57.81213424001893</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>65.92768427608706</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49434172313325</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>78.03303713061706</v>
@@ -26052,16 +26052,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>90.4687457914608</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>92.09541281912071</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>81.96869489115805</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>96.22962838366004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>339287.2723148487</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36988.64704521366</v>
+        <v>376275.9193600623</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>206105.0207368509</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328154.0515658425</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>341699.3756980308</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>157065.0487020995</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>303453.8470174211</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>309481.609335087</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>300361.1817230916</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>217059.9772503463</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>158131.4114103872</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>202793.1212990685</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>166700.9397412791</v>
+        <v>357102.4766001984</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>91381.29470172944</v>
+      </c>
+      <c r="C2" t="n">
         <v>91381.29470172945</v>
       </c>
-      <c r="C2" t="n">
-        <v>82398.33756217753</v>
-      </c>
       <c r="D2" t="n">
-        <v>8982.957139551894</v>
+        <v>91381.29470172942</v>
       </c>
       <c r="E2" t="n">
+        <v>97172.46592738404</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97172.46592738404</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97172.46592738404</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97172.46592738407</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97172.46592738407</v>
+      </c>
+      <c r="J2" t="n">
         <v>97172.46592738405</v>
       </c>
-      <c r="F2" t="n">
-        <v>60501.65521771398</v>
-      </c>
-      <c r="G2" t="n">
-        <v>90142.13413332625</v>
-      </c>
-      <c r="H2" t="n">
-        <v>93431.7128511434</v>
-      </c>
-      <c r="I2" t="n">
-        <v>48591.94772356008</v>
-      </c>
-      <c r="J2" t="n">
-        <v>84143.51302870964</v>
-      </c>
       <c r="K2" t="n">
-        <v>85607.3981629999</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="L2" t="n">
-        <v>83392.4371715153</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="M2" t="n">
-        <v>63162.14465670575</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="N2" t="n">
-        <v>48850.92152414424</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="O2" t="n">
-        <v>59697.33678282401</v>
+        <v>97172.46592738404</v>
       </c>
       <c r="P2" t="n">
-        <v>50932.09269021799</v>
+        <v>97172.46592738407</v>
       </c>
     </row>
     <row r="3">
@@ -26420,46 +26420,46 @@
         <v>91381.29470172945</v>
       </c>
       <c r="C4" t="n">
-        <v>82398.33756217753</v>
+        <v>91381.29470172945</v>
       </c>
       <c r="D4" t="n">
-        <v>8982.957139551894</v>
+        <v>91381.29470172945</v>
       </c>
       <c r="E4" t="n">
         <v>54153.02400305979</v>
       </c>
       <c r="F4" t="n">
-        <v>17482.21329338972</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="G4" t="n">
-        <v>47122.69220900199</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="H4" t="n">
-        <v>50412.27092681914</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="I4" t="n">
-        <v>5572.505799235807</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="J4" t="n">
-        <v>41124.07110438539</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="K4" t="n">
-        <v>42587.95623867566</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="L4" t="n">
-        <v>40372.99524719104</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="M4" t="n">
-        <v>20142.70273238149</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="N4" t="n">
-        <v>5831.479599819972</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="O4" t="n">
-        <v>16677.89485849974</v>
+        <v>54153.02400305979</v>
       </c>
       <c r="P4" t="n">
-        <v>7912.650765893709</v>
+        <v>54153.02400305979</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003477</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003479</v>
       </c>
       <c r="E6" t="n">
-        <v>-93692.17018068412</v>
+        <v>-108502.187019798</v>
       </c>
       <c r="F6" t="n">
-        <v>39407.82981931594</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="G6" t="n">
-        <v>39407.82981931594</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="H6" t="n">
-        <v>39407.82981931594</v>
+        <v>24597.81298020204</v>
       </c>
       <c r="I6" t="n">
-        <v>39407.82981931595</v>
+        <v>24597.81298020204</v>
       </c>
       <c r="J6" t="n">
-        <v>39407.82981931593</v>
+        <v>24597.81298020203</v>
       </c>
       <c r="K6" t="n">
-        <v>39407.82981931592</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="L6" t="n">
-        <v>39407.82981931594</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="M6" t="n">
-        <v>39407.82981931594</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="N6" t="n">
-        <v>39407.82981931595</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="O6" t="n">
-        <v>39407.82981931594</v>
+        <v>24597.81298020202</v>
       </c>
       <c r="P6" t="n">
-        <v>39407.82981931595</v>
+        <v>24597.81298020204</v>
       </c>
     </row>
   </sheetData>
